--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.498</v>
+        <v>-12.726</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.012</v>
+        <v>6.367</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.272</v>
+        <v>-12.589</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.7</v>
+        <v>6.645999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.731999999999999</v>
+        <v>6.179</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>6.934</v>
+        <v>6.444</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.85</v>
+        <v>6.103999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
